--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -6,16 +6,134 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$63</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="474">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.BlueComposition</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.6-beta</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MHVcompositionBluebutton</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>VA MHV BlueButton Composition</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A profile on the Composition that declares how MHV will Create/Update in PGHD for BlueButton report.
+**This is a work in progress. It is not agreed to, and it is not ready for review.**
+* must be marked with MHV app tag
+* must be status final
+* must have a title explaining the content - for example: all vital-signs from past 60 days
+* must have date stamp of when created (now)
+* must be LOINC 55188-7 Patient data Document
+* must point at the patient for both subject and author
+* DSTU2 use comment rather than note 
+</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Composition</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -135,9 +253,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Composition</t>
   </si>
   <si>
     <t/>
@@ -1506,29 +1621,185 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AN63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1579,7229 +1850,7211 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AH6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN63">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>John Moehrke (himself)</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -75,268 +78,267 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A profile on the Composition that declares how MHV will Create/Update in PGHD for BlueButton report.
-**This is a work in progress. It is not agreed to, and it is not ready for review.**
-* must be marked with MHV app tag
-* must be status final
-* must have a title explaining the content - for example: all vital-signs from past 60 days
-* must have date stamp of when created (now)
-* must be LOINC 55188-7 Patient data Document
-* must point at the patient for both subject and author
-* DSTU2 use comment rather than note 
+    <t>A profile on the Composition that declares how MHV will Create/Update in PGHD for BlueButton report.
+**This is a work in progress. It is not agreed to, and it is not ready for review.**
+* must be marked with MHV app tag
+* must be status final
+* must have a title explaining the content - for example: all vital-signs from past 60 days
+* must have date stamp of when created (now)
+* must be LOINC 55188-7 Patient data Document
+* must point at the patient for both subject and author
+* DSTU2 use comment rather than note</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Composition</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: CDA (R2)</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR DocumentReference</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
+  </si>
+  <si>
+    <t>when described by DocumentReference</t>
+  </si>
+  <si>
+    <t>Composition.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Composition</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Composition</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: CDA (R2)</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR DocumentReference</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
-  </si>
-  <si>
-    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
-  </si>
-  <si>
-    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument</t>
-  </si>
-  <si>
-    <t>when described by DocumentReference</t>
-  </si>
-  <si>
-    <t>Composition.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Composition.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Composition.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Composition.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Composition.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -387,10 +389,6 @@
   </si>
   <si>
     <t>Composition.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1626,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1704,37 +1702,41 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1746,48 +1748,54 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1817,7 @@
     <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1825,248 +1833,248 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.28125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.8046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.80859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -2081,7 +2089,7 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2090,20 +2098,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>90</v>
@@ -2122,80 +2130,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2204,20 +2212,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>90</v>
@@ -2234,80 +2242,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2316,252 +2324,252 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>120</v>
@@ -2574,80 +2582,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2656,20 +2664,20 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>90</v>
@@ -2688,80 +2696,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2770,20 +2778,20 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>90</v>
@@ -2802,80 +2810,80 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2884,20 +2892,20 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>90</v>
@@ -2916,80 +2924,80 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2998,20 +3006,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>90</v>
@@ -3030,26 +3038,26 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
         <v>147</v>
@@ -3061,49 +3069,49 @@
         <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3112,7 +3120,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3122,10 +3130,10 @@
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>90</v>
@@ -3144,26 +3152,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>156</v>
@@ -3175,49 +3183,49 @@
         <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3226,17 +3234,17 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>90</v>
@@ -3258,80 +3266,80 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3340,23 +3348,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>166</v>
@@ -3372,26 +3380,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>170</v>
@@ -3403,49 +3411,49 @@
         <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3458,19 +3466,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>176</v>
@@ -3486,80 +3494,80 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>180</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3572,19 +3580,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>184</v>
@@ -3600,80 +3608,80 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -3682,112 +3690,112 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -3796,26 +3804,26 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>194</v>
@@ -3824,86 +3832,86 @@
         <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -3912,20 +3920,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>90</v>
@@ -3944,62 +3952,62 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>101</v>
@@ -4026,7 +4034,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4036,7 +4044,7 @@
         <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>90</v>
@@ -4060,26 +4068,26 @@
         <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>213</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>214</v>
@@ -4091,19 +4099,19 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>208</v>
@@ -4115,7 +4123,7 @@
         <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>101</v>
@@ -4127,7 +4135,7 @@
         <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>219</v>
@@ -4142,7 +4150,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4152,10 +4160,10 @@
         <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>90</v>
@@ -4176,26 +4184,26 @@
         <v>226</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>170</v>
@@ -4207,19 +4215,19 @@
         <v>229</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>221</v>
@@ -4231,7 +4239,7 @@
         <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>101</v>
@@ -4258,20 +4266,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>90</v>
@@ -4292,26 +4300,26 @@
         <v>239</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>156</v>
@@ -4323,31 +4331,31 @@
         <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>101</v>
@@ -4359,7 +4367,7 @@
         <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>244</v>
@@ -4374,7 +4382,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4384,10 +4392,10 @@
         <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>90</v>
@@ -4408,68 +4416,68 @@
         <v>250</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>245</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>251</v>
@@ -4490,20 +4498,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>90</v>
@@ -4522,62 +4530,62 @@
         <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4604,7 +4612,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4614,10 +4622,10 @@
         <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>90</v>
@@ -4638,50 +4646,50 @@
         <v>270</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>265</v>
@@ -4693,7 +4701,7 @@
         <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4720,7 +4728,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4730,10 +4738,10 @@
         <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>90</v>
@@ -4752,50 +4760,50 @@
         <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>276</v>
@@ -4804,10 +4812,10 @@
         <v>89</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>101</v>
@@ -4834,7 +4842,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4844,16 +4852,16 @@
         <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>286</v>
@@ -4866,50 +4874,50 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>285</v>
@@ -4921,13 +4929,13 @@
         <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>289</v>
@@ -4939,7 +4947,7 @@
         <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -4948,20 +4956,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>90</v>
@@ -4980,26 +4988,26 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>214</v>
@@ -5011,37 +5019,37 @@
         <v>297</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>298</v>
@@ -5053,7 +5061,7 @@
         <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -5062,23 +5070,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>301</v>
@@ -5096,68 +5104,68 @@
         <v>305</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>306</v>
@@ -5169,7 +5177,7 @@
         <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -5178,110 +5186,110 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -5290,112 +5298,112 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5408,13 +5416,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>90</v>
@@ -5423,7 +5431,7 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>313</v>
@@ -5432,86 +5440,86 @@
         <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>196</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5520,7 +5528,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5530,13 +5538,13 @@
         <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>166</v>
@@ -5552,26 +5560,26 @@
         <v>319</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>214</v>
@@ -5583,19 +5591,19 @@
         <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>316</v>
@@ -5607,13 +5615,13 @@
         <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>322</v>
@@ -5622,10 +5630,10 @@
         <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5634,23 +5642,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>266</v>
@@ -5666,68 +5674,68 @@
         <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>328</v>
@@ -5736,10 +5744,10 @@
         <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5748,23 +5756,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>331</v>
@@ -5780,68 +5788,68 @@
         <v>334</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>335</v>
@@ -5850,7 +5858,7 @@
         <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>337</v>
@@ -5862,20 +5870,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>90</v>
@@ -5896,68 +5904,68 @@
         <v>343</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>344</v>
@@ -5969,7 +5977,7 @@
         <v>346</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -5978,23 +5986,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>301</v>
@@ -6010,68 +6018,68 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>347</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>351</v>
@@ -6083,7 +6091,7 @@
         <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -6092,110 +6100,110 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -6204,112 +6212,112 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -6322,13 +6330,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>90</v>
@@ -6337,7 +6345,7 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>313</v>
@@ -6346,86 +6354,86 @@
         <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6434,7 +6442,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6444,13 +6452,13 @@
         <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>166</v>
@@ -6466,26 +6474,26 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>214</v>
@@ -6497,19 +6505,19 @@
         <v>362</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>357</v>
@@ -6521,13 +6529,13 @@
         <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>363</v>
@@ -6539,7 +6547,7 @@
         <v>365</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6548,7 +6556,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6558,13 +6566,13 @@
         <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>367</v>
@@ -6578,50 +6586,50 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>366</v>
@@ -6633,13 +6641,13 @@
         <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>370</v>
@@ -6651,7 +6659,7 @@
         <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6660,20 +6668,20 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>90</v>
@@ -6694,68 +6702,68 @@
         <v>377</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>378</v>
@@ -6767,7 +6775,7 @@
         <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6776,110 +6784,110 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6888,112 +6896,112 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -7006,13 +7014,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>90</v>
@@ -7021,7 +7029,7 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>313</v>
@@ -7030,86 +7038,86 @@
         <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>196</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -7118,20 +7126,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>90</v>
@@ -7150,26 +7158,26 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>156</v>
@@ -7181,37 +7189,37 @@
         <v>389</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>232</v>
@@ -7223,7 +7231,7 @@
         <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7232,20 +7240,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>90</v>
@@ -7262,68 +7270,68 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>273</v>
@@ -7335,7 +7343,7 @@
         <v>395</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -7344,20 +7352,20 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>90</v>
@@ -7374,80 +7382,80 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -7456,23 +7464,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>301</v>
@@ -7486,68 +7494,68 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>405</v>
@@ -7556,10 +7564,10 @@
         <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -7568,110 +7576,110 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -7680,112 +7688,112 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -7798,13 +7806,13 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>90</v>
@@ -7813,7 +7821,7 @@
         <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>313</v>
@@ -7822,86 +7830,86 @@
         <v>314</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>196</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -7914,22 +7922,22 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>412</v>
@@ -7944,68 +7952,68 @@
         <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>289</v>
@@ -8014,10 +8022,10 @@
         <v>290</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -8026,23 +8034,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>222</v>
@@ -8060,26 +8068,26 @@
         <v>420</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>156</v>
@@ -8091,37 +8099,37 @@
         <v>422</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>231</v>
@@ -8130,10 +8138,10 @@
         <v>232</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -8142,23 +8150,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>424</v>
@@ -8174,68 +8182,68 @@
         <v>279</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>281</v>
@@ -8244,7 +8252,7 @@
         <v>282</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>284</v>
@@ -8256,23 +8264,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>397</v>
@@ -8288,80 +8296,80 @@
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>431</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8370,23 +8378,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>176</v>
@@ -8402,56 +8410,56 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>89</v>
@@ -8463,7 +8471,7 @@
         <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>437</v>
@@ -8472,10 +8480,10 @@
         <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -8484,23 +8492,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>166</v>
@@ -8518,26 +8526,26 @@
         <v>442</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
         <v>214</v>
@@ -8549,46 +8557,46 @@
         <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>234</v>
@@ -8600,23 +8608,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>222</v>
@@ -8634,26 +8642,26 @@
         <v>450</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>170</v>
@@ -8665,49 +8673,49 @@
         <v>452</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>446</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>453</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -8716,23 +8724,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>397</v>
@@ -8748,59 +8756,59 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>454</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>458</v>
@@ -8809,7 +8817,7 @@
         <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>459</v>
@@ -8818,10 +8826,10 @@
         <v>460</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
@@ -8830,23 +8838,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>222</v>
@@ -8864,26 +8872,26 @@
         <v>465</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>170</v>
@@ -8895,25 +8903,25 @@
         <v>467</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -8925,19 +8933,19 @@
         <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>468</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -8946,26 +8954,26 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>470</v>
@@ -8978,59 +8986,59 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>469</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>436</v>
@@ -9039,7 +9047,7 @@
         <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>405</v>
@@ -9048,10 +9056,10 @@
         <v>473</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1805,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1815,45 +1818,45 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1977,36 +1980,39 @@
       <c r="AN1" t="s" s="1">
         <v>77</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>82</v>
@@ -2014,70 +2020,70 @@
       <c r="M2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>85</v>
@@ -2089,32 +2095,35 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>91</v>
@@ -2128,110 +2137,113 @@
       <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>98</v>
@@ -2239,111 +2251,114 @@
       <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2351,111 +2366,114 @@
       <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>111</v>
@@ -2466,113 +2484,116 @@
       <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>121</v>
@@ -2580,110 +2601,113 @@
       <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>126</v>
@@ -2694,110 +2718,113 @@
       <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>132</v>
@@ -2808,110 +2835,113 @@
       <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>138</v>
@@ -2922,110 +2952,113 @@
       <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>144</v>
@@ -3036,31 +3069,31 @@
       <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
         <v>148</v>
@@ -3069,80 +3102,83 @@
         <v>149</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>153</v>
@@ -3150,31 +3186,31 @@
       <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>157</v>
@@ -3183,80 +3219,83 @@
         <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>162</v>
@@ -3264,110 +3303,113 @@
       <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>167</v>
@@ -3378,31 +3420,31 @@
       <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>171</v>
@@ -3411,77 +3453,80 @@
         <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="B15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>177</v>
@@ -3492,110 +3537,113 @@
       <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="B16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>185</v>
@@ -3606,340 +3654,349 @@
       <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>200</v>
@@ -3950,70 +4007,70 @@
       <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>204</v>
@@ -4026,37 +4083,40 @@
       </c>
       <c r="AN19" t="s" s="2">
         <v>207</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>210</v>
@@ -4068,29 +4128,29 @@
         <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>215</v>
@@ -4099,77 +4159,80 @@
         <v>216</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>220</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>223</v>
@@ -4184,68 +4247,68 @@
         <v>226</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>229</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>231</v>
@@ -4258,37 +4321,40 @@
       </c>
       <c r="AN21" t="s" s="2">
         <v>234</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>237</v>
@@ -4300,108 +4366,111 @@
         <v>239</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>247</v>
@@ -4416,71 +4485,71 @@
         <v>250</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>252</v>
@@ -4490,34 +4559,37 @@
       </c>
       <c r="AN23" t="s" s="2">
         <v>254</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>257</v>
@@ -4525,73 +4597,73 @@
       <c r="L24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>259</v>
       </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>261</v>
@@ -4604,34 +4676,37 @@
       </c>
       <c r="AN24" t="s" s="2">
         <v>264</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>267</v>
@@ -4646,68 +4721,68 @@
         <v>270</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>272</v>
@@ -4720,108 +4795,111 @@
       </c>
       <c r="AN25" t="s" s="2">
         <v>275</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>281</v>
@@ -4834,37 +4912,40 @@
       </c>
       <c r="AN26" t="s" s="2">
         <v>284</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>287</v>
@@ -4872,73 +4953,73 @@
       <c r="M27" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>290</v>
@@ -4947,38 +5028,41 @@
         <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>294</v>
@@ -4986,110 +5070,113 @@
       <c r="M28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
         <v>297</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>302</v>
@@ -5104,71 +5191,71 @@
         <v>305</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>307</v>
@@ -5177,35 +5264,38 @@
         <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>104</v>
@@ -5213,111 +5303,114 @@
       <c r="L30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>111</v>
@@ -5328,454 +5421,466 @@
       <c r="M31" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N31" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="B32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>319</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="Y33" t="s" s="2">
         <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>327</v>
       </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>332</v>
@@ -5783,113 +5888,116 @@
       <c r="L35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>334</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>340</v>
@@ -5904,71 +6012,71 @@
         <v>343</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>345</v>
@@ -5977,38 +6085,41 @@
         <v>346</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>349</v>
@@ -6016,73 +6127,73 @@
       <c r="M37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>352</v>
@@ -6091,35 +6202,38 @@
         <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>104</v>
@@ -6127,111 +6241,114 @@
       <c r="L38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>111</v>
@@ -6242,229 +6359,235 @@
       <c r="M39" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N39" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>359</v>
@@ -6472,73 +6595,73 @@
       <c r="M41" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="Y41" t="s" s="2">
         <v>362</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>364</v>
@@ -6547,35 +6670,38 @@
         <v>365</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>368</v>
@@ -6583,74 +6709,74 @@
       <c r="L42" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>89</v>
+        <v>367</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>371</v>
@@ -6659,38 +6785,41 @@
         <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>375</v>
@@ -6702,71 +6831,71 @@
         <v>377</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>379</v>
@@ -6775,35 +6904,38 @@
         <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>104</v>
@@ -6811,111 +6943,114 @@
       <c r="L44" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>111</v>
@@ -6926,229 +7061,235 @@
       <c r="M45" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N45" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>385</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>386</v>
@@ -7156,110 +7297,113 @@
       <c r="M47" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>388</v>
+        <v>157</v>
       </c>
       <c r="Y47" t="s" s="2">
         <v>389</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>390</v>
+        <v>233</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>393</v>
@@ -7267,111 +7411,114 @@
       <c r="L48" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>397</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>398</v>
@@ -7379,223 +7526,229 @@
       <c r="L49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>104</v>
@@ -7603,111 +7756,114 @@
       <c r="L51" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>111</v>
@@ -7718,229 +7874,235 @@
       <c r="M52" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N52" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>314</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="B54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>413</v>
@@ -7952,111 +8114,114 @@
         <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>223</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>418</v>
@@ -8068,108 +8233,111 @@
         <v>420</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>421</v>
+        <v>157</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>422</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>232</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>425</v>
@@ -8177,116 +8345,119 @@
       <c r="L56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="M56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>285</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>429</v>
@@ -8294,113 +8465,116 @@
       <c r="M57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>177</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>434</v>
@@ -8408,113 +8582,116 @@
       <c r="M58" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>436</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>440</v>
@@ -8526,111 +8703,114 @@
         <v>442</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>443</v>
+        <v>215</v>
       </c>
       <c r="Y59" t="s" s="2">
         <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>107</v>
+        <v>446</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>235</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>448</v>
@@ -8642,111 +8822,114 @@
         <v>450</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>451</v>
+        <v>171</v>
       </c>
       <c r="Y60" t="s" s="2">
         <v>452</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>454</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>456</v>
@@ -8754,113 +8937,116 @@
       <c r="M61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N61" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>459</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>460</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>462</v>
+        <v>223</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>463</v>
@@ -8872,111 +9058,114 @@
         <v>465</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="Y62" t="s" s="2">
         <v>467</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>458</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>459</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>469</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>471</v>
@@ -8984,82 +9173,85 @@
       <c r="M63" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="N63" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
@@ -2012,16 +2016,16 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2086,16 +2090,16 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -2103,10 +2107,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2117,7 +2121,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2126,19 +2130,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2188,13 +2192,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2220,10 +2224,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2234,7 +2238,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2243,16 +2247,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2303,19 +2307,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2335,10 +2339,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2349,7 +2353,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
@@ -2361,13 +2365,13 @@
         <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2418,13 +2422,13 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
@@ -2436,7 +2440,7 @@
         <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>79</v>
@@ -2450,14 +2454,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2476,16 +2480,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2523,19 +2527,19 @@
         <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2547,13 +2551,13 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>79</v>
@@ -2567,10 +2571,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2581,7 +2585,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2590,19 +2594,19 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2652,19 +2656,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2684,10 +2688,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2698,7 +2702,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -2707,19 +2711,19 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2769,19 +2773,19 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>79</v>
@@ -2801,10 +2805,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2815,7 +2819,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
@@ -2824,19 +2828,19 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2886,19 +2890,19 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2918,10 +2922,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2941,19 +2945,19 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3003,7 +3007,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3015,7 +3019,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3035,10 +3039,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3058,19 +3062,19 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3096,13 +3100,13 @@
         <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>79</v>
@@ -3120,7 +3124,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3132,7 +3136,7 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3152,10 +3156,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3163,10 +3167,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3175,19 +3179,19 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3198,7 +3202,7 @@
         <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>79</v>
@@ -3213,13 +3217,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3237,7 +3241,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3249,7 +3253,7 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3269,10 +3273,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3283,28 +3287,28 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3354,19 +3358,19 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3386,10 +3390,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3400,7 +3404,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3412,16 +3416,16 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3447,13 +3451,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3471,19 +3475,19 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3503,21 +3507,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3529,16 +3533,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3588,25 +3592,25 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3620,14 +3624,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3646,16 +3650,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3705,7 +3709,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3723,7 +3727,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3737,14 +3741,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3763,16 +3767,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3822,7 +3826,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3834,13 +3838,13 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3854,14 +3858,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3874,25 +3878,25 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3941,7 +3945,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3953,13 +3957,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3973,10 +3977,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3987,7 +3991,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3996,19 +4000,19 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4058,42 +4062,42 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4101,34 +4105,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4138,7 +4142,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4153,13 +4157,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4177,42 +4181,42 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4220,10 +4224,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4232,22 +4236,22 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4257,7 +4261,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4272,13 +4276,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4296,42 +4300,42 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4351,22 +4355,22 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4391,13 +4395,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4415,7 +4419,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4427,30 +4431,30 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4458,10 +4462,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4470,22 +4474,22 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4534,42 +4538,42 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4580,7 +4584,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4589,20 +4593,20 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4651,42 +4655,42 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4694,10 +4698,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4706,22 +4710,22 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4770,42 +4774,42 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4813,10 +4817,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4825,20 +4829,20 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4887,10 +4891,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>81</v>
@@ -4899,30 +4903,30 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4930,10 +4934,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4942,19 +4946,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5004,31 +5008,31 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5036,10 +5040,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5050,7 +5054,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5059,19 +5063,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5097,13 +5101,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5121,31 +5125,31 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5153,10 +5157,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5179,19 +5183,19 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5240,7 +5244,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5252,19 +5256,19 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5272,10 +5276,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5286,7 +5290,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5298,13 +5302,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5355,13 +5359,13 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
@@ -5373,7 +5377,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5387,14 +5391,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5413,16 +5417,16 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5484,13 +5488,13 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5504,14 +5508,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5524,25 +5528,25 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5591,7 +5595,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5603,13 +5607,13 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5623,10 +5627,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5634,10 +5638,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5649,17 +5653,17 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5684,13 +5688,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5708,28 +5712,28 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5740,10 +5744,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5754,7 +5758,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5766,17 +5770,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5825,28 +5829,28 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5857,10 +5861,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5871,7 +5875,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5883,17 +5887,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5942,42 +5946,42 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5988,7 +5992,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5997,22 +6001,22 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6061,31 +6065,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6093,10 +6097,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6119,16 +6123,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6178,7 +6182,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6190,19 +6194,19 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6210,10 +6214,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6224,7 +6228,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6236,13 +6240,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6293,13 +6297,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6311,7 +6315,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6325,14 +6329,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6351,16 +6355,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6410,7 +6414,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6422,13 +6426,13 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6442,14 +6446,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6462,25 +6466,25 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6529,7 +6533,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6541,13 +6545,13 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6561,10 +6565,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6572,10 +6576,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6587,16 +6591,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6622,13 +6626,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6646,31 +6650,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6678,10 +6682,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6689,10 +6693,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6704,13 +6708,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6761,31 +6765,31 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6793,10 +6797,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6816,22 +6820,22 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6880,7 +6884,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6892,19 +6896,19 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6912,10 +6916,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6926,7 +6930,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6938,13 +6942,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6995,13 +6999,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7013,7 +7017,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7027,14 +7031,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7053,16 +7057,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7112,7 +7116,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7124,13 +7128,13 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7144,14 +7148,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7164,25 +7168,25 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7231,7 +7235,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7243,13 +7247,13 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7263,10 +7267,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7286,19 +7290,19 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7324,13 +7328,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7348,7 +7352,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7360,19 +7364,19 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7380,10 +7384,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7394,7 +7398,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7403,16 +7407,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7463,31 +7467,31 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7495,10 +7499,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7518,16 +7522,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7578,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7590,16 +7594,16 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7610,10 +7614,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7636,13 +7640,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7693,7 +7697,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7705,16 +7709,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7725,10 +7729,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7739,7 +7743,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7751,13 +7755,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7808,13 +7812,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7826,7 +7830,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7840,14 +7844,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7866,16 +7870,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7925,7 +7929,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7937,13 +7941,13 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7957,14 +7961,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7977,25 +7981,25 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8044,7 +8048,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8056,13 +8060,13 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8076,21 +8080,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8102,19 +8106,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8163,28 +8167,28 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8195,10 +8199,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8209,7 +8213,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8221,19 +8225,19 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8258,13 +8262,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8282,28 +8286,28 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8314,10 +8318,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8340,17 +8344,17 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8399,7 +8403,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8411,30 +8415,30 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8445,7 +8449,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8457,16 +8461,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8516,19 +8520,19 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8537,7 +8541,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8548,10 +8552,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8562,7 +8566,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8574,16 +8578,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8633,28 +8637,28 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8665,10 +8669,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8679,7 +8683,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8691,19 +8695,19 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8728,13 +8732,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8752,42 +8756,42 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8798,7 +8802,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8810,19 +8814,19 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8847,13 +8851,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8871,28 +8875,28 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8903,10 +8907,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8929,16 +8933,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8988,7 +8992,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8997,19 +9001,19 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9020,10 +9024,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9034,7 +9038,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9046,19 +9050,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9083,13 +9087,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9107,28 +9111,28 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9139,10 +9143,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9165,16 +9169,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9224,7 +9228,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9233,19 +9237,19 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.BlueComposition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -282,6 +282,10 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -439,7 +443,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -459,7 +463,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -874,7 +878,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1619,10 +1623,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2087,19 +2091,19 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -2107,10 +2111,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2121,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2130,19 +2134,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2192,13 +2196,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2224,10 +2228,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2238,7 +2242,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2247,16 +2251,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2307,19 +2311,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2339,10 +2343,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2353,7 +2357,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
@@ -2365,13 +2369,13 @@
         <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2422,13 +2426,13 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
@@ -2440,7 +2444,7 @@
         <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>79</v>
@@ -2454,14 +2458,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2480,16 +2484,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2527,19 +2531,19 @@
         <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2551,13 +2555,13 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>79</v>
@@ -2571,10 +2575,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2585,7 +2589,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2594,19 +2598,19 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2656,19 +2660,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2688,10 +2692,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2702,7 +2706,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -2711,19 +2715,19 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2773,19 +2777,19 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>79</v>
@@ -2805,10 +2809,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2819,7 +2823,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
@@ -2828,19 +2832,19 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2890,19 +2894,19 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2922,10 +2926,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2945,19 +2949,19 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3007,7 +3011,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3019,7 +3023,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3039,10 +3043,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3062,19 +3066,19 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3100,13 +3104,13 @@
         <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>79</v>
@@ -3124,7 +3128,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3136,7 +3140,7 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3156,10 +3160,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3167,10 +3171,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3179,19 +3183,19 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3202,7 +3206,7 @@
         <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>79</v>
@@ -3217,13 +3221,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3241,7 +3245,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3253,7 +3257,7 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3273,10 +3277,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3287,28 +3291,28 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3358,19 +3362,19 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3404,7 +3408,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3416,16 +3420,16 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3451,13 +3455,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3475,19 +3479,19 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3507,21 +3511,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3533,16 +3537,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3592,25 +3596,25 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3624,14 +3628,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3650,16 +3654,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3709,7 +3713,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3727,7 +3731,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3741,14 +3745,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3767,16 +3771,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3826,7 +3830,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3838,13 +3842,13 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3858,14 +3862,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3878,25 +3882,25 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3945,7 +3949,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3957,13 +3961,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3991,7 +3995,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4000,19 +4004,19 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4062,42 +4066,42 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4105,34 +4109,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4142,7 +4146,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4157,13 +4161,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4181,42 +4185,42 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4224,10 +4228,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4236,22 +4240,22 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4261,7 +4265,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4276,13 +4280,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4300,42 +4304,42 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4355,22 +4359,22 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4395,13 +4399,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4419,7 +4423,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4431,30 +4435,30 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4462,10 +4466,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4474,22 +4478,22 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4538,42 +4542,42 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4584,7 +4588,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4593,20 +4597,20 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4655,42 +4659,42 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4698,10 +4702,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4710,22 +4714,22 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4774,42 +4778,42 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4817,10 +4821,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4829,20 +4833,20 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4891,10 +4895,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>81</v>
@@ -4903,30 +4907,30 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4934,10 +4938,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4946,19 +4950,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5008,31 +5012,31 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5040,10 +5044,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5054,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5063,19 +5067,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5101,13 +5105,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5125,31 +5129,31 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5157,10 +5161,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5183,19 +5187,19 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5244,7 +5248,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5256,19 +5260,19 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5276,10 +5280,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5290,7 +5294,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5302,13 +5306,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5359,13 +5363,13 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
@@ -5377,7 +5381,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5391,14 +5395,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5417,16 +5421,16 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5476,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5488,13 +5492,13 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5508,14 +5512,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5528,25 +5532,25 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5595,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5607,13 +5611,13 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5627,10 +5631,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5638,10 +5642,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5653,17 +5657,17 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5688,13 +5692,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5712,28 +5716,28 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5744,10 +5748,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5758,7 +5762,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5770,17 +5774,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5829,28 +5833,28 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5861,10 +5865,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5875,7 +5879,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5887,17 +5891,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5946,42 +5950,42 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5992,7 +5996,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6001,22 +6005,22 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6065,31 +6069,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6097,10 +6101,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6123,16 +6127,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6182,7 +6186,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6194,19 +6198,19 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6214,10 +6218,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6228,7 +6232,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6240,13 +6244,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6297,13 +6301,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6315,7 +6319,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6329,14 +6333,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6355,16 +6359,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6414,7 +6418,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6426,13 +6430,13 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6446,14 +6450,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6466,25 +6470,25 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6533,7 +6537,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6545,13 +6549,13 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6565,10 +6569,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6576,10 +6580,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6591,16 +6595,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6626,13 +6630,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6650,31 +6654,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6682,10 +6686,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6693,10 +6697,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6708,13 +6712,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6765,31 +6769,31 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6797,10 +6801,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6820,22 +6824,22 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6884,7 +6888,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6896,19 +6900,19 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -6916,10 +6920,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6930,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6942,13 +6946,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6999,13 +7003,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7017,7 +7021,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7031,14 +7035,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7057,16 +7061,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7116,7 +7120,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7128,13 +7132,13 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7148,14 +7152,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7168,25 +7172,25 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7235,7 +7239,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7247,13 +7251,13 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7267,10 +7271,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7290,19 +7294,19 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7328,13 +7332,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7352,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7364,19 +7368,19 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7384,10 +7388,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7398,7 +7402,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7407,16 +7411,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7467,31 +7471,31 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7499,10 +7503,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7522,16 +7526,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7582,7 +7586,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7594,16 +7598,16 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7614,10 +7618,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7640,13 +7644,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7697,7 +7701,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7709,16 +7713,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7729,10 +7733,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7743,7 +7747,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7755,13 +7759,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7812,13 +7816,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7830,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -7844,14 +7848,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7870,16 +7874,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7929,7 +7933,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7941,13 +7945,13 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7961,14 +7965,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7981,25 +7985,25 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8048,7 +8052,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8060,13 +8064,13 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8080,21 +8084,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8106,19 +8110,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8167,28 +8171,28 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8199,10 +8203,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8213,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8225,19 +8229,19 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8262,13 +8266,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8286,28 +8290,28 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8318,10 +8322,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8344,17 +8348,17 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8403,7 +8407,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8415,30 +8419,30 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8449,7 +8453,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8461,16 +8465,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8520,19 +8524,19 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8541,7 +8545,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8552,10 +8556,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8566,7 +8570,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8578,16 +8582,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8637,28 +8641,28 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8669,10 +8673,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8683,7 +8687,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8695,19 +8699,19 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8732,13 +8736,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8756,42 +8760,42 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8802,7 +8806,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8814,19 +8818,19 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8851,13 +8855,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8875,28 +8879,28 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8907,10 +8911,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8933,16 +8937,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8992,7 +8996,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9001,19 +9005,19 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9024,10 +9028,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9038,7 +9042,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9050,19 +9054,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9087,13 +9091,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9111,28 +9115,28 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9143,10 +9147,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9172,13 +9176,13 @@
         <v>82</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9228,7 +9232,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9237,19 +9241,19 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
